--- a/EquipoAsignaciones.xlsx
+++ b/EquipoAsignaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCPGrupo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE0324B-2050-4AD8-8769-A74EED275614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FB1C3A-A3D9-40CF-B3BA-8CD8125CE9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18305BFC-685C-4BBB-B69D-34FFC2E273AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{18305BFC-685C-4BBB-B69D-34FFC2E273AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Asignaciones" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
   <si>
     <t>Integrante</t>
   </si>
@@ -260,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +303,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -419,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -427,6 +434,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,9 +446,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -993,7 +1001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9BB7C7-B56E-4FB0-AF48-9C2A9C486591}">
   <dimension ref="B3:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1005,42 +1013,42 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1207,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0C780E-1315-47D9-AFA5-52B7B03C30A5}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,13 +1277,13 @@
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -1287,7 +1295,7 @@
       <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1332,6 +1340,9 @@
       <c r="E14" t="s">
         <v>16</v>
       </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
@@ -1340,6 +1351,9 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
@@ -1379,7 +1393,7 @@
       <c r="E20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1429,7 +1443,7 @@
       <c r="E29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="13" t="s">
         <v>62</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -1479,7 +1493,7 @@
       <c r="E38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="13" t="s">
         <v>65</v>
       </c>
       <c r="G38" s="2" t="s">

--- a/EquipoAsignaciones.xlsx
+++ b/EquipoAsignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCPGrupo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FB1C3A-A3D9-40CF-B3BA-8CD8125CE9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66709F8E-A30C-4CDD-93B3-B0DE47C28ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{18305BFC-685C-4BBB-B69D-34FFC2E273AE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
   <si>
     <t>Integrante</t>
   </si>
@@ -437,6 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,7 +447,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1216,7 +1216,7 @@
   <dimension ref="B2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,13 +1277,13 @@
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
@@ -1295,7 +1295,7 @@
       <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1379,6 +1379,9 @@
       <c r="E17" t="s">
         <v>16</v>
       </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
@@ -1393,7 +1396,7 @@
       <c r="E20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1409,6 +1412,9 @@
       <c r="B22" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -1419,6 +1425,9 @@
       <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -1429,6 +1438,9 @@
       <c r="B26" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
@@ -1443,7 +1455,7 @@
       <c r="E29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="10" t="s">
         <v>62</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -1493,7 +1505,7 @@
       <c r="E38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="10" t="s">
         <v>65</v>
       </c>
       <c r="G38" s="2" t="s">

--- a/EquipoAsignaciones.xlsx
+++ b/EquipoAsignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCPGrupo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66709F8E-A30C-4CDD-93B3-B0DE47C28ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0592684C-5F29-4959-BCF1-4D01EA14CDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{18305BFC-685C-4BBB-B69D-34FFC2E273AE}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
   <si>
     <t>Integrante</t>
   </si>
@@ -1216,7 +1216,7 @@
   <dimension ref="B2:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,6 +1407,9 @@
       <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -1420,6 +1423,9 @@
       <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -1428,6 +1434,9 @@
       <c r="C24" t="s">
         <v>16</v>
       </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -1439,6 +1448,9 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
         <v>16</v>
       </c>
     </row>

--- a/EquipoAsignaciones.xlsx
+++ b/EquipoAsignaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCPGrupo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0592684C-5F29-4959-BCF1-4D01EA14CDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFEAD05-283A-489C-9258-9EB53F318677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{18305BFC-685C-4BBB-B69D-34FFC2E273AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18305BFC-685C-4BBB-B69D-34FFC2E273AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Asignaciones" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="87">
   <si>
     <t>Integrante</t>
   </si>
@@ -254,6 +254,51 @@
   </si>
   <si>
     <t>Giomar (Script de BD,API)</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Giomar</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Team_Member</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>SQUAD</t>
+  </si>
+  <si>
+    <t>TRIBE</t>
+  </si>
+  <si>
+    <t>CHAPTER_LEADER</t>
+  </si>
+  <si>
+    <t>CHAPTER_AREA_LEADER</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerar implementar un log (log4net) de actividad y de errores la aplicación, para este último caso, que también se grabe en la base de datos. </t>
+  </si>
+  <si>
+    <t>Autenticación usando OAuth JWT.</t>
+  </si>
+  <si>
+    <t>Tokens</t>
   </si>
 </sst>
 </file>
@@ -426,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -446,6 +491,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -607,6 +656,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{289ED80A-23E4-44B8-A5C9-F78376372FDD}" name="Tabla8" displayName="Tabla8" ref="B11:H14" totalsRowShown="0">
+  <autoFilter ref="B11:H14" xr:uid="{289ED80A-23E4-44B8-A5C9-F78376372FDD}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{47FC9C54-84A5-4BE3-8D6E-82D6ABBF9CB9}" name="Nombre"/>
+    <tableColumn id="2" xr3:uid="{3B75EAC2-E8DC-44AE-8255-6F907CB5466D}" name="Team_Member"/>
+    <tableColumn id="3" xr3:uid="{97295965-7710-4957-9514-83BD0D48B1DB}" name="Application"/>
+    <tableColumn id="4" xr3:uid="{39D12B5D-2DC5-4C86-818E-EF9FA2F234E7}" name="SQUAD"/>
+    <tableColumn id="5" xr3:uid="{7D99DA88-8CF3-418F-9EA4-0C7E16DCA706}" name="TRIBE"/>
+    <tableColumn id="6" xr3:uid="{814F1D07-8095-4153-9E06-A1F477524760}" name="CHAPTER_LEADER"/>
+    <tableColumn id="7" xr3:uid="{D6F15F2B-4D3D-4437-B200-558CD9E461C3}" name="CHAPTER_AREA_LEADER"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F4A0E64F-D54B-4585-8D02-83EA41737381}" name="Tabla1" displayName="Tabla1" ref="B2:G8" totalsRowShown="0">
   <autoFilter ref="B2:G8" xr:uid="{F4A0E64F-D54B-4585-8D02-83EA41737381}"/>
   <tableColumns count="6">
@@ -621,7 +686,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8EB3056-0DCF-4CE2-A7ED-9AD3518E2B4F}" name="Tabla2" displayName="Tabla2" ref="B2:C7" totalsRowShown="0">
   <autoFilter ref="B2:C7" xr:uid="{E8EB3056-0DCF-4CE2-A7ED-9AD3518E2B4F}"/>
   <tableColumns count="2">
@@ -632,7 +697,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{70557E5B-06BE-404C-BF42-C527C06A1441}" name="Tabla4" displayName="Tabla4" ref="B11:F17" totalsRowShown="0" tableBorderDxfId="7">
   <autoFilter ref="B11:F17" xr:uid="{70557E5B-06BE-404C-BF42-C527C06A1441}"/>
   <tableColumns count="5">
@@ -646,7 +711,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BC8CE82A-D458-4828-BDF0-870BED824A9B}" name="Tabla46" displayName="Tabla46" ref="B20:G26" totalsRowShown="0" tableBorderDxfId="5">
   <autoFilter ref="B20:G26" xr:uid="{BC8CE82A-D458-4828-BDF0-870BED824A9B}"/>
   <tableColumns count="6">
@@ -661,7 +726,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4F26C765-5333-4C1E-AFE7-3BB7B61AD205}" name="Tabla47" displayName="Tabla47" ref="B29:G35" totalsRowShown="0" tableBorderDxfId="3">
   <autoFilter ref="B29:G35" xr:uid="{4F26C765-5333-4C1E-AFE7-3BB7B61AD205}"/>
   <tableColumns count="6">
@@ -676,7 +741,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{4827D54F-E5F1-43E4-B09F-01A8664D15A1}" name="Tabla48" displayName="Tabla48" ref="B38:G44" totalsRowShown="0" tableBorderDxfId="1">
   <autoFilter ref="B38:G44" xr:uid="{4827D54F-E5F1-43E4-B09F-01A8664D15A1}"/>
   <tableColumns count="6">
@@ -691,7 +756,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E16AD9C9-375C-449F-9B1E-12CA9DA9CD7C}" name="Tabla3" displayName="Tabla3" ref="B2:C6" totalsRowShown="0">
   <autoFilter ref="B2:C6" xr:uid="{E16AD9C9-375C-449F-9B1E-12CA9DA9CD7C}"/>
   <tableColumns count="2">
@@ -999,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C9BB7C7-B56E-4FB0-AF48-9C2A9C486591}">
-  <dimension ref="B3:D6"/>
+  <dimension ref="B3:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,9 +1075,11 @@
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>67</v>
       </c>
@@ -1023,7 +1090,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>43</v>
       </c>
@@ -1034,7 +1101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>71</v>
       </c>
@@ -1043,15 +1110,97 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1060,7 +1209,7 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0C780E-1315-47D9-AFA5-52B7B03C30A5}">
   <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,6 +1559,12 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -1418,6 +1573,12 @@
       <c r="C22" t="s">
         <v>16</v>
       </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -1426,6 +1587,15 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -1437,6 +1607,12 @@
       <c r="D24" t="s">
         <v>16</v>
       </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -1451,6 +1627,15 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
         <v>16</v>
       </c>
     </row>

--- a/EquipoAsignaciones.xlsx
+++ b/EquipoAsignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\git\ProyectoBCPGrupo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFEAD05-283A-489C-9258-9EB53F318677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562DF3D6-E53C-483E-BDA3-33F31DA44A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18305BFC-685C-4BBB-B69D-34FFC2E273AE}"/>
   </bookViews>
@@ -341,7 +341,6 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Aharoni"/>
-      <charset val="177"/>
     </font>
     <font>
       <b/>
@@ -483,6 +482,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -491,10 +494,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1067,7 +1066,7 @@
   <dimension ref="B3:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,13 +1173,13 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="12" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1191,7 +1190,7 @@
       <c r="C19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1426,13 +1425,13 @@
     </row>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
